--- a/data/merge_external_validation.xlsx
+++ b/data/merge_external_validation.xlsx
@@ -102,7 +102,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +112,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -605,133 +598,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -742,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,13 +1269,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:V95"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A52" sqref="$A52:$XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="3" width="12.9230769230769"/>
+    <col min="4" max="4" width="11.7692307692308"/>
+    <col min="5" max="7" width="12.9230769230769"/>
+    <col min="8" max="8" width="11.7692307692308"/>
+    <col min="9" max="15" width="12.9230769230769"/>
+    <col min="16" max="16" width="11.7692307692308"/>
+    <col min="17" max="18" width="12.9230769230769"/>
+    <col min="19" max="19" width="11.7692307692308"/>
+    <col min="20" max="20" width="12.9230769230769"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
@@ -4647,2910 +4651,6 @@
       </c>
       <c r="U51" s="2"/>
       <c r="V51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
-      <c r="A52" s="2">
-        <v>6.447720871</v>
-      </c>
-      <c r="B52" s="2">
-        <v>6.719118234</v>
-      </c>
-      <c r="C52" s="2">
-        <v>6.698053071</v>
-      </c>
-      <c r="D52" s="2">
-        <v>7.981870317</v>
-      </c>
-      <c r="E52" s="2">
-        <v>7.039070487</v>
-      </c>
-      <c r="F52" s="2">
-        <v>6.82687833</v>
-      </c>
-      <c r="G52" s="2">
-        <v>6.75556162</v>
-      </c>
-      <c r="H52" s="2">
-        <v>7.040216648</v>
-      </c>
-      <c r="I52" s="2">
-        <v>6.340689422</v>
-      </c>
-      <c r="J52" s="2">
-        <v>6.449136851</v>
-      </c>
-      <c r="K52" s="2">
-        <v>6.571156701</v>
-      </c>
-      <c r="L52" s="2">
-        <v>6.666645018</v>
-      </c>
-      <c r="M52" s="2">
-        <v>6.440351108</v>
-      </c>
-      <c r="N52" s="2">
-        <v>6.643354594</v>
-      </c>
-      <c r="O52" s="2">
-        <v>6.566108417</v>
-      </c>
-      <c r="P52" s="2">
-        <v>6.516154011</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>6.561013302</v>
-      </c>
-      <c r="R52" s="2">
-        <v>6.480472868</v>
-      </c>
-      <c r="S52" s="2">
-        <v>8.351568179</v>
-      </c>
-      <c r="T52" s="2">
-        <v>6.811868544</v>
-      </c>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
-      <c r="A53" s="2">
-        <v>134.9</v>
-      </c>
-      <c r="B53" s="2">
-        <v>131.8</v>
-      </c>
-      <c r="C53" s="2">
-        <v>187.3</v>
-      </c>
-      <c r="D53" s="2">
-        <v>650.8</v>
-      </c>
-      <c r="E53" s="2">
-        <v>252.2</v>
-      </c>
-      <c r="F53" s="2">
-        <v>183.6</v>
-      </c>
-      <c r="G53" s="2">
-        <v>181.2</v>
-      </c>
-      <c r="H53" s="2">
-        <v>313.1</v>
-      </c>
-      <c r="I53" s="2">
-        <v>118.6</v>
-      </c>
-      <c r="J53" s="2">
-        <v>94.4</v>
-      </c>
-      <c r="K53" s="2">
-        <v>92.3</v>
-      </c>
-      <c r="L53" s="2">
-        <v>164.3</v>
-      </c>
-      <c r="M53" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="N53" s="2">
-        <v>202.2</v>
-      </c>
-      <c r="O53" s="2">
-        <v>186.5</v>
-      </c>
-      <c r="P53" s="2">
-        <v>108.4</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>162.1</v>
-      </c>
-      <c r="R53" s="2">
-        <v>120.4</v>
-      </c>
-      <c r="S53" s="2">
-        <v>788.1</v>
-      </c>
-      <c r="T53" s="2">
-        <v>243.1</v>
-      </c>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
-      <c r="A54" s="2">
-        <v>6.659421723</v>
-      </c>
-      <c r="B54" s="2">
-        <v>6.813674321</v>
-      </c>
-      <c r="C54" s="2">
-        <v>6.861080996</v>
-      </c>
-      <c r="D54" s="2">
-        <v>7.663903679</v>
-      </c>
-      <c r="E54" s="2">
-        <v>7.157871413</v>
-      </c>
-      <c r="F54" s="2">
-        <v>6.800588715</v>
-      </c>
-      <c r="G54" s="2">
-        <v>6.701185974</v>
-      </c>
-      <c r="H54" s="2">
-        <v>6.840747956</v>
-      </c>
-      <c r="I54" s="2">
-        <v>6.435160255</v>
-      </c>
-      <c r="J54" s="2">
-        <v>6.430141876</v>
-      </c>
-      <c r="K54" s="2">
-        <v>6.476211934</v>
-      </c>
-      <c r="L54" s="2">
-        <v>6.760845067</v>
-      </c>
-      <c r="M54" s="2">
-        <v>6.40406294</v>
-      </c>
-      <c r="N54" s="2">
-        <v>6.753060713</v>
-      </c>
-      <c r="O54" s="2">
-        <v>6.609977229</v>
-      </c>
-      <c r="P54" s="2">
-        <v>6.561602539</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>6.68182404</v>
-      </c>
-      <c r="R54" s="2">
-        <v>6.42870712</v>
-      </c>
-      <c r="S54" s="2">
-        <v>8.313280409</v>
-      </c>
-      <c r="T54" s="2">
-        <v>6.838009298</v>
-      </c>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="2">
-        <v>6.546115407</v>
-      </c>
-      <c r="B55" s="2">
-        <v>6.627912509</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6.722992887</v>
-      </c>
-      <c r="D55" s="2">
-        <v>7.67063939</v>
-      </c>
-      <c r="E55" s="2">
-        <v>7.173432057</v>
-      </c>
-      <c r="F55" s="2">
-        <v>6.757791595</v>
-      </c>
-      <c r="G55" s="2">
-        <v>6.683589525</v>
-      </c>
-      <c r="H55" s="2">
-        <v>6.782542738</v>
-      </c>
-      <c r="I55" s="2">
-        <v>6.426456462</v>
-      </c>
-      <c r="J55" s="2">
-        <v>6.35974956</v>
-      </c>
-      <c r="K55" s="2">
-        <v>6.505641448</v>
-      </c>
-      <c r="L55" s="2">
-        <v>6.552240918</v>
-      </c>
-      <c r="M55" s="2">
-        <v>6.581430161</v>
-      </c>
-      <c r="N55" s="2">
-        <v>6.81817129</v>
-      </c>
-      <c r="O55" s="2">
-        <v>6.712533551</v>
-      </c>
-      <c r="P55" s="2">
-        <v>6.615564833</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>6.630723029</v>
-      </c>
-      <c r="R55" s="2">
-        <v>6.433007115</v>
-      </c>
-      <c r="S55" s="2">
-        <v>7.845127091</v>
-      </c>
-      <c r="T55" s="2">
-        <v>6.784142491</v>
-      </c>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
-      <c r="A56" s="2">
-        <v>6.483374343</v>
-      </c>
-      <c r="B56" s="2">
-        <v>6.595014103</v>
-      </c>
-      <c r="C56" s="2">
-        <v>6.741807235</v>
-      </c>
-      <c r="D56" s="2">
-        <v>7.622367385</v>
-      </c>
-      <c r="E56" s="2">
-        <v>7.166701101</v>
-      </c>
-      <c r="F56" s="2">
-        <v>6.660135153</v>
-      </c>
-      <c r="G56" s="2">
-        <v>6.702829019</v>
-      </c>
-      <c r="H56" s="2">
-        <v>6.7864719</v>
-      </c>
-      <c r="I56" s="2">
-        <v>6.425517651</v>
-      </c>
-      <c r="J56" s="2">
-        <v>6.560147196</v>
-      </c>
-      <c r="K56" s="2">
-        <v>6.484755775</v>
-      </c>
-      <c r="L56" s="2">
-        <v>6.637142365</v>
-      </c>
-      <c r="M56" s="2">
-        <v>6.387401932</v>
-      </c>
-      <c r="N56" s="2">
-        <v>6.780235097</v>
-      </c>
-      <c r="O56" s="2">
-        <v>6.617063344</v>
-      </c>
-      <c r="P56" s="2">
-        <v>6.492448371</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>6.615782003</v>
-      </c>
-      <c r="R56" s="2">
-        <v>6.483374343</v>
-      </c>
-      <c r="S56" s="2">
-        <v>8.210641197</v>
-      </c>
-      <c r="T56" s="2">
-        <v>6.872840483</v>
-      </c>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
-      <c r="A57" s="2">
-        <v>6.451313176</v>
-      </c>
-      <c r="B57" s="2">
-        <v>6.598935133</v>
-      </c>
-      <c r="C57" s="2">
-        <v>6.733635182</v>
-      </c>
-      <c r="D57" s="2">
-        <v>8.163913191</v>
-      </c>
-      <c r="E57" s="2">
-        <v>7.328971919</v>
-      </c>
-      <c r="F57" s="2">
-        <v>6.833245522</v>
-      </c>
-      <c r="G57" s="2">
-        <v>6.633721813</v>
-      </c>
-      <c r="H57" s="2">
-        <v>7.004672596</v>
-      </c>
-      <c r="I57" s="2">
-        <v>6.354054133</v>
-      </c>
-      <c r="J57" s="2">
-        <v>6.418201998</v>
-      </c>
-      <c r="K57" s="2">
-        <v>6.509424395</v>
-      </c>
-      <c r="L57" s="2">
-        <v>6.819984401</v>
-      </c>
-      <c r="M57" s="2">
-        <v>6.506635338</v>
-      </c>
-      <c r="N57" s="2">
-        <v>6.791153584</v>
-      </c>
-      <c r="O57" s="2">
-        <v>6.584558117</v>
-      </c>
-      <c r="P57" s="2">
-        <v>6.621242539</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>6.641821242</v>
-      </c>
-      <c r="R57" s="2">
-        <v>6.411853942</v>
-      </c>
-      <c r="S57" s="2">
-        <v>8.603875338</v>
-      </c>
-      <c r="T57" s="2">
-        <v>6.800813638</v>
-      </c>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="A58" s="2">
-        <v>6.543668948</v>
-      </c>
-      <c r="B58" s="2">
-        <v>6.49523831</v>
-      </c>
-      <c r="C58" s="2">
-        <v>6.758004247</v>
-      </c>
-      <c r="D58" s="2">
-        <v>7.782044987</v>
-      </c>
-      <c r="E58" s="2">
-        <v>6.862392349</v>
-      </c>
-      <c r="F58" s="2">
-        <v>6.807446928</v>
-      </c>
-      <c r="G58" s="2">
-        <v>6.551365866</v>
-      </c>
-      <c r="H58" s="2">
-        <v>6.679242144</v>
-      </c>
-      <c r="I58" s="2">
-        <v>6.520287537</v>
-      </c>
-      <c r="J58" s="2">
-        <v>6.430141876</v>
-      </c>
-      <c r="K58" s="2">
-        <v>6.486863746</v>
-      </c>
-      <c r="L58" s="2">
-        <v>6.670922594</v>
-      </c>
-      <c r="M58" s="2">
-        <v>6.537451388</v>
-      </c>
-      <c r="N58" s="2">
-        <v>6.718309432</v>
-      </c>
-      <c r="O58" s="2">
-        <v>6.646292972</v>
-      </c>
-      <c r="P58" s="2">
-        <v>6.656135393</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>6.524495075</v>
-      </c>
-      <c r="R58" s="2">
-        <v>6.415407786</v>
-      </c>
-      <c r="S58" s="2">
-        <v>7.135054505</v>
-      </c>
-      <c r="T58" s="2">
-        <v>6.733221971</v>
-      </c>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="A59" s="2">
-        <v>6.589157101</v>
-      </c>
-      <c r="B59" s="2">
-        <v>6.788051764</v>
-      </c>
-      <c r="C59" s="2">
-        <v>6.761744339</v>
-      </c>
-      <c r="D59" s="2">
-        <v>7.424822137</v>
-      </c>
-      <c r="E59" s="2">
-        <v>7.234445663</v>
-      </c>
-      <c r="F59" s="2">
-        <v>6.601830911</v>
-      </c>
-      <c r="G59" s="2">
-        <v>6.598038317</v>
-      </c>
-      <c r="H59" s="2">
-        <v>6.929359869</v>
-      </c>
-      <c r="I59" s="2">
-        <v>6.436874113</v>
-      </c>
-      <c r="J59" s="2">
-        <v>6.298806669</v>
-      </c>
-      <c r="K59" s="2">
-        <v>6.483040298</v>
-      </c>
-      <c r="L59" s="2">
-        <v>6.688246978</v>
-      </c>
-      <c r="M59" s="2">
-        <v>6.614134895</v>
-      </c>
-      <c r="N59" s="2">
-        <v>6.814879969</v>
-      </c>
-      <c r="O59" s="2">
-        <v>6.672344516</v>
-      </c>
-      <c r="P59" s="2">
-        <v>6.731115342</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>6.518576352</v>
-      </c>
-      <c r="R59" s="2">
-        <v>6.446815489</v>
-      </c>
-      <c r="S59" s="2">
-        <v>8.042577898</v>
-      </c>
-      <c r="T59" s="2">
-        <v>6.754104876</v>
-      </c>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="A60" s="2">
-        <v>138</v>
-      </c>
-      <c r="B60" s="2">
-        <v>223</v>
-      </c>
-      <c r="C60" s="2">
-        <v>271.4</v>
-      </c>
-      <c r="D60" s="2">
-        <v>670</v>
-      </c>
-      <c r="E60" s="2">
-        <v>201.6</v>
-      </c>
-      <c r="F60" s="2">
-        <v>189.7</v>
-      </c>
-      <c r="G60" s="2">
-        <v>180</v>
-      </c>
-      <c r="H60" s="2">
-        <v>280</v>
-      </c>
-      <c r="I60" s="2">
-        <v>100.6</v>
-      </c>
-      <c r="J60" s="2">
-        <v>99.2</v>
-      </c>
-      <c r="K60" s="2">
-        <v>119.4</v>
-      </c>
-      <c r="L60" s="2">
-        <v>178.6</v>
-      </c>
-      <c r="M60" s="2">
-        <v>103.5</v>
-      </c>
-      <c r="N60" s="2">
-        <v>229.7</v>
-      </c>
-      <c r="O60" s="2">
-        <v>179.1</v>
-      </c>
-      <c r="P60" s="2">
-        <v>162.2</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>176.9</v>
-      </c>
-      <c r="R60" s="2">
-        <v>107.6</v>
-      </c>
-      <c r="S60" s="2">
-        <v>1126.1</v>
-      </c>
-      <c r="T60" s="2">
-        <v>212.2</v>
-      </c>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="A61" s="2">
-        <v>6.573712099</v>
-      </c>
-      <c r="B61" s="2">
-        <v>6.600153625</v>
-      </c>
-      <c r="C61" s="2">
-        <v>6.803712922</v>
-      </c>
-      <c r="D61" s="2">
-        <v>7.445422847</v>
-      </c>
-      <c r="E61" s="2">
-        <v>7.152347625</v>
-      </c>
-      <c r="F61" s="2">
-        <v>6.776501966</v>
-      </c>
-      <c r="G61" s="2">
-        <v>6.653926695</v>
-      </c>
-      <c r="H61" s="2">
-        <v>6.902214304</v>
-      </c>
-      <c r="I61" s="2">
-        <v>6.563067313</v>
-      </c>
-      <c r="J61" s="2">
-        <v>6.460422741</v>
-      </c>
-      <c r="K61" s="2">
-        <v>6.499720628</v>
-      </c>
-      <c r="L61" s="2">
-        <v>6.717395722</v>
-      </c>
-      <c r="M61" s="2">
-        <v>6.557370701</v>
-      </c>
-      <c r="N61" s="2">
-        <v>6.714762309</v>
-      </c>
-      <c r="O61" s="2">
-        <v>6.642962816</v>
-      </c>
-      <c r="P61" s="2">
-        <v>6.563067313</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>6.629974092</v>
-      </c>
-      <c r="R61" s="2">
-        <v>6.425705462</v>
-      </c>
-      <c r="S61" s="2">
-        <v>7.004126812</v>
-      </c>
-      <c r="T61" s="2">
-        <v>6.877986665</v>
-      </c>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="2">
-        <v>123.6</v>
-      </c>
-      <c r="B62" s="2">
-        <v>266.4</v>
-      </c>
-      <c r="C62" s="2">
-        <v>223.7</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1692.7</v>
-      </c>
-      <c r="E62" s="2">
-        <v>232.7</v>
-      </c>
-      <c r="F62" s="2">
-        <v>180</v>
-      </c>
-      <c r="G62" s="2">
-        <v>191.9</v>
-      </c>
-      <c r="H62" s="2">
-        <v>294.9</v>
-      </c>
-      <c r="I62" s="2">
-        <v>100</v>
-      </c>
-      <c r="J62" s="2">
-        <v>84.1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>120</v>
-      </c>
-      <c r="L62" s="2">
-        <v>115.9</v>
-      </c>
-      <c r="M62" s="2">
-        <v>76.2</v>
-      </c>
-      <c r="N62" s="2">
-        <v>223.1</v>
-      </c>
-      <c r="O62" s="2">
-        <v>153.4</v>
-      </c>
-      <c r="P62" s="2">
-        <v>152.8</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>151.1</v>
-      </c>
-      <c r="R62" s="2">
-        <v>85.1</v>
-      </c>
-      <c r="S62" s="2">
-        <v>1719.5</v>
-      </c>
-      <c r="T62" s="2">
-        <v>234.4</v>
-      </c>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
-      <c r="A63" s="2">
-        <v>6.377479106</v>
-      </c>
-      <c r="B63" s="2">
-        <v>6.661432013</v>
-      </c>
-      <c r="C63" s="2">
-        <v>6.682372642</v>
-      </c>
-      <c r="D63" s="2">
-        <v>7.645325616</v>
-      </c>
-      <c r="E63" s="2">
-        <v>7.255792947</v>
-      </c>
-      <c r="F63" s="2">
-        <v>6.568654671</v>
-      </c>
-      <c r="G63" s="2">
-        <v>6.622330776</v>
-      </c>
-      <c r="H63" s="2">
-        <v>6.941614984</v>
-      </c>
-      <c r="I63" s="2">
-        <v>6.446350768</v>
-      </c>
-      <c r="J63" s="2">
-        <v>6.306395924</v>
-      </c>
-      <c r="K63" s="2">
-        <v>6.435747639</v>
-      </c>
-      <c r="L63" s="2">
-        <v>6.49946628</v>
-      </c>
-      <c r="M63" s="2">
-        <v>6.418366667</v>
-      </c>
-      <c r="N63" s="2">
-        <v>6.819373187</v>
-      </c>
-      <c r="O63" s="2">
-        <v>6.638984029</v>
-      </c>
-      <c r="P63" s="2">
-        <v>6.547584966</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>6.56038015</v>
-      </c>
-      <c r="R63" s="2">
-        <v>6.426256766</v>
-      </c>
-      <c r="S63" s="2">
-        <v>8.083218435</v>
-      </c>
-      <c r="T63" s="2">
-        <v>6.74402651</v>
-      </c>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
-      <c r="A64" s="2">
-        <v>10.48589866</v>
-      </c>
-      <c r="B64" s="2">
-        <v>8.5062216995</v>
-      </c>
-      <c r="C64" s="2">
-        <v>7.008353101</v>
-      </c>
-      <c r="D64" s="2">
-        <v>7.018346506</v>
-      </c>
-      <c r="E64" s="2">
-        <v>8.237244377</v>
-      </c>
-      <c r="F64" s="2">
-        <v>8.8342673145</v>
-      </c>
-      <c r="G64" s="2">
-        <v>8.962832221</v>
-      </c>
-      <c r="H64" s="2">
-        <v>7.5605279075</v>
-      </c>
-      <c r="I64" s="2">
-        <v>10.2352446767</v>
-      </c>
-      <c r="J64" s="2">
-        <v>7.670821718</v>
-      </c>
-      <c r="K64" s="2">
-        <v>8.17998752607692</v>
-      </c>
-      <c r="L64" s="2">
-        <v>7.019292355</v>
-      </c>
-      <c r="M64" s="2">
-        <v>8.363005607</v>
-      </c>
-      <c r="N64" s="2">
-        <v>10.00036575</v>
-      </c>
-      <c r="O64" s="2">
-        <v>10.9751574415</v>
-      </c>
-      <c r="P64" s="2">
-        <v>8.236852105</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>7.6151933755</v>
-      </c>
-      <c r="R64" s="2">
-        <v>7.075036852</v>
-      </c>
-      <c r="S64" s="2">
-        <v>8.1954928898</v>
-      </c>
-      <c r="T64" s="2">
-        <v>10.483426939</v>
-      </c>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
-      <c r="A65" s="2">
-        <v>6.543459058</v>
-      </c>
-      <c r="B65" s="2">
-        <v>6.709087096</v>
-      </c>
-      <c r="C65" s="2">
-        <v>6.822942543</v>
-      </c>
-      <c r="D65" s="2">
-        <v>7.795498564</v>
-      </c>
-      <c r="E65" s="2">
-        <v>7.382399641</v>
-      </c>
-      <c r="F65" s="2">
-        <v>6.681880917</v>
-      </c>
-      <c r="G65" s="2">
-        <v>6.763342013</v>
-      </c>
-      <c r="H65" s="2">
-        <v>7.022769387</v>
-      </c>
-      <c r="I65" s="2">
-        <v>6.432315203</v>
-      </c>
-      <c r="J65" s="2">
-        <v>6.428491783</v>
-      </c>
-      <c r="K65" s="2">
-        <v>6.523868086</v>
-      </c>
-      <c r="L65" s="2">
-        <v>6.698820402</v>
-      </c>
-      <c r="M65" s="2">
-        <v>6.442880322</v>
-      </c>
-      <c r="N65" s="2">
-        <v>6.760607489</v>
-      </c>
-      <c r="O65" s="2">
-        <v>6.674404154</v>
-      </c>
-      <c r="P65" s="2">
-        <v>6.497566748</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>6.821564451</v>
-      </c>
-      <c r="R65" s="2">
-        <v>6.364885049</v>
-      </c>
-      <c r="S65" s="2">
-        <v>8.003816372</v>
-      </c>
-      <c r="T65" s="2">
-        <v>6.783918071</v>
-      </c>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
-      <c r="A66" s="2">
-        <v>6.552255559</v>
-      </c>
-      <c r="B66" s="2">
-        <v>6.64143937</v>
-      </c>
-      <c r="C66" s="2">
-        <v>6.782895273</v>
-      </c>
-      <c r="D66" s="2">
-        <v>7.802400963</v>
-      </c>
-      <c r="E66" s="2">
-        <v>6.959466582</v>
-      </c>
-      <c r="F66" s="2">
-        <v>6.704918062</v>
-      </c>
-      <c r="G66" s="2">
-        <v>6.686803975</v>
-      </c>
-      <c r="H66" s="2">
-        <v>6.98438048</v>
-      </c>
-      <c r="I66" s="2">
-        <v>6.367662278</v>
-      </c>
-      <c r="J66" s="2">
-        <v>6.41910544</v>
-      </c>
-      <c r="K66" s="2">
-        <v>6.511797826</v>
-      </c>
-      <c r="L66" s="2">
-        <v>6.572406091</v>
-      </c>
-      <c r="M66" s="2">
-        <v>6.468459193</v>
-      </c>
-      <c r="N66" s="2">
-        <v>7.067201288</v>
-      </c>
-      <c r="O66" s="2">
-        <v>6.716180898</v>
-      </c>
-      <c r="P66" s="2">
-        <v>6.513479466</v>
-      </c>
-      <c r="Q66" s="2">
-        <v>6.67013353</v>
-      </c>
-      <c r="R66" s="2">
-        <v>6.462095178</v>
-      </c>
-      <c r="S66" s="2">
-        <v>8.483272601</v>
-      </c>
-      <c r="T66" s="2">
-        <v>6.765907243</v>
-      </c>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
-      <c r="A67" s="2">
-        <v>6.404736098</v>
-      </c>
-      <c r="B67" s="2">
-        <v>6.536682017</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6.889789309</v>
-      </c>
-      <c r="D67" s="2">
-        <v>8.360123858</v>
-      </c>
-      <c r="E67" s="2">
-        <v>6.846000728</v>
-      </c>
-      <c r="F67" s="2">
-        <v>6.682967839</v>
-      </c>
-      <c r="G67" s="2">
-        <v>6.72843885</v>
-      </c>
-      <c r="H67" s="2">
-        <v>7.00913279</v>
-      </c>
-      <c r="I67" s="2">
-        <v>6.391744811</v>
-      </c>
-      <c r="J67" s="2">
-        <v>6.437837263</v>
-      </c>
-      <c r="K67" s="2">
-        <v>6.428579517</v>
-      </c>
-      <c r="L67" s="2">
-        <v>6.495900699</v>
-      </c>
-      <c r="M67" s="2">
-        <v>6.472804931</v>
-      </c>
-      <c r="N67" s="2">
-        <v>6.855028624</v>
-      </c>
-      <c r="O67" s="2">
-        <v>6.607309175</v>
-      </c>
-      <c r="P67" s="2">
-        <v>6.57506016</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>6.643165592</v>
-      </c>
-      <c r="R67" s="2">
-        <v>6.55599505</v>
-      </c>
-      <c r="S67" s="2">
-        <v>7.365426758</v>
-      </c>
-      <c r="T67" s="2">
-        <v>6.873991849</v>
-      </c>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
-      <c r="A68" s="2">
-        <v>131.3</v>
-      </c>
-      <c r="B68" s="2">
-        <v>320.9</v>
-      </c>
-      <c r="C68" s="2">
-        <v>252</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1088.6</v>
-      </c>
-      <c r="E68" s="2">
-        <v>184.8</v>
-      </c>
-      <c r="F68" s="2">
-        <v>183.4</v>
-      </c>
-      <c r="G68" s="2">
-        <v>210</v>
-      </c>
-      <c r="H68" s="2">
-        <v>294.4</v>
-      </c>
-      <c r="I68" s="2">
-        <v>117.8</v>
-      </c>
-      <c r="J68" s="2">
-        <v>104.4</v>
-      </c>
-      <c r="K68" s="2">
-        <v>112.6</v>
-      </c>
-      <c r="L68" s="2">
-        <v>110.6</v>
-      </c>
-      <c r="M68" s="2">
-        <v>100.8</v>
-      </c>
-      <c r="N68" s="2">
-        <v>203.7</v>
-      </c>
-      <c r="O68" s="2">
-        <v>157.2</v>
-      </c>
-      <c r="P68" s="2">
-        <v>172.9</v>
-      </c>
-      <c r="Q68" s="2">
-        <v>161.6</v>
-      </c>
-      <c r="R68" s="2">
-        <v>101.9</v>
-      </c>
-      <c r="S68" s="2">
-        <v>1587.4</v>
-      </c>
-      <c r="T68" s="2">
-        <v>227.2</v>
-      </c>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="A69" s="2">
-        <v>6.495877863</v>
-      </c>
-      <c r="B69" s="2">
-        <v>6.440730773</v>
-      </c>
-      <c r="C69" s="2">
-        <v>7.065201973</v>
-      </c>
-      <c r="D69" s="2">
-        <v>7.503483145</v>
-      </c>
-      <c r="E69" s="2">
-        <v>6.871796722</v>
-      </c>
-      <c r="F69" s="2">
-        <v>6.637563327</v>
-      </c>
-      <c r="G69" s="2">
-        <v>6.572434966</v>
-      </c>
-      <c r="H69" s="2">
-        <v>7.103540102</v>
-      </c>
-      <c r="I69" s="2">
-        <v>6.435485727</v>
-      </c>
-      <c r="J69" s="2">
-        <v>6.327319527</v>
-      </c>
-      <c r="K69" s="2">
-        <v>6.411765185</v>
-      </c>
-      <c r="L69" s="2">
-        <v>6.631145868</v>
-      </c>
-      <c r="M69" s="2">
-        <v>6.504181495</v>
-      </c>
-      <c r="N69" s="2">
-        <v>6.787684942</v>
-      </c>
-      <c r="O69" s="2">
-        <v>6.869706931</v>
-      </c>
-      <c r="P69" s="2">
-        <v>6.536852202</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>6.593069154</v>
-      </c>
-      <c r="R69" s="2">
-        <v>6.495877863</v>
-      </c>
-      <c r="S69" s="2">
-        <v>7.507970154</v>
-      </c>
-      <c r="T69" s="2">
-        <v>6.851969102</v>
-      </c>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="A70" s="2">
-        <v>9.78425699</v>
-      </c>
-      <c r="B70" s="2">
-        <v>7.869953271</v>
-      </c>
-      <c r="C70" s="2">
-        <v>7.004339671</v>
-      </c>
-      <c r="D70" s="2">
-        <v>7.026522253</v>
-      </c>
-      <c r="E70" s="2">
-        <v>9.912908473</v>
-      </c>
-      <c r="F70" s="2">
-        <v>8.4440615715</v>
-      </c>
-      <c r="G70" s="2">
-        <v>9.360223293</v>
-      </c>
-      <c r="H70" s="2">
-        <v>7.4367785825</v>
-      </c>
-      <c r="I70" s="2">
-        <v>9.8149368753</v>
-      </c>
-      <c r="J70" s="2">
-        <v>7.429327859</v>
-      </c>
-      <c r="K70" s="2">
-        <v>8.60029988615385</v>
-      </c>
-      <c r="L70" s="2">
-        <v>6.996240948</v>
-      </c>
-      <c r="M70" s="2">
-        <v>7.654762166</v>
-      </c>
-      <c r="N70" s="2">
-        <v>10.14905238</v>
-      </c>
-      <c r="O70" s="2">
-        <v>10.913216295</v>
-      </c>
-      <c r="P70" s="2">
-        <v>9.125382068</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>7.366571042</v>
-      </c>
-      <c r="R70" s="2">
-        <v>7.075059282</v>
-      </c>
-      <c r="S70" s="2">
-        <v>7.979199233</v>
-      </c>
-      <c r="T70" s="2">
-        <v>11.2748505055</v>
-      </c>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
-      <c r="A71" s="2">
-        <v>6.519044602</v>
-      </c>
-      <c r="B71" s="2">
-        <v>6.586482398</v>
-      </c>
-      <c r="C71" s="2">
-        <v>6.713286674</v>
-      </c>
-      <c r="D71" s="2">
-        <v>7.855832529</v>
-      </c>
-      <c r="E71" s="2">
-        <v>7.174036353</v>
-      </c>
-      <c r="F71" s="2">
-        <v>6.768083478</v>
-      </c>
-      <c r="G71" s="2">
-        <v>6.698820402</v>
-      </c>
-      <c r="H71" s="2">
-        <v>7.129008192</v>
-      </c>
-      <c r="I71" s="2">
-        <v>6.519044602</v>
-      </c>
-      <c r="J71" s="2">
-        <v>6.434779121</v>
-      </c>
-      <c r="K71" s="2">
-        <v>6.600203193</v>
-      </c>
-      <c r="L71" s="2">
-        <v>6.6394458</v>
-      </c>
-      <c r="M71" s="2">
-        <v>6.500346815</v>
-      </c>
-      <c r="N71" s="2">
-        <v>6.837757068</v>
-      </c>
-      <c r="O71" s="2">
-        <v>6.826079316</v>
-      </c>
-      <c r="P71" s="2">
-        <v>6.72615327</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>6.469796844</v>
-      </c>
-      <c r="R71" s="2">
-        <v>6.394650509</v>
-      </c>
-      <c r="S71" s="2">
-        <v>7.15833318</v>
-      </c>
-      <c r="T71" s="2">
-        <v>6.721424743</v>
-      </c>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="2">
-        <v>10.19709131</v>
-      </c>
-      <c r="B72" s="2">
-        <v>8.02552439</v>
-      </c>
-      <c r="C72" s="2">
-        <v>6.972589674</v>
-      </c>
-      <c r="D72" s="2">
-        <v>7.036990836</v>
-      </c>
-      <c r="E72" s="2">
-        <v>10.04730265</v>
-      </c>
-      <c r="F72" s="2">
-        <v>8.997268104</v>
-      </c>
-      <c r="G72" s="2">
-        <v>9.293300187</v>
-      </c>
-      <c r="H72" s="2">
-        <v>7.317210846</v>
-      </c>
-      <c r="I72" s="2">
-        <v>9.7958268777</v>
-      </c>
-      <c r="J72" s="2">
-        <v>7.561502447</v>
-      </c>
-      <c r="K72" s="2">
-        <v>8.45101218307692</v>
-      </c>
-      <c r="L72" s="2">
-        <v>7.058318391</v>
-      </c>
-      <c r="M72" s="2">
-        <v>8.159685976</v>
-      </c>
-      <c r="N72" s="2">
-        <v>10.67270361</v>
-      </c>
-      <c r="O72" s="2">
-        <v>9.6212646785</v>
-      </c>
-      <c r="P72" s="2">
-        <v>8.553198062</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>7.446650336</v>
-      </c>
-      <c r="R72" s="2">
-        <v>7.092201544</v>
-      </c>
-      <c r="S72" s="2">
-        <v>8.8807510898</v>
-      </c>
-      <c r="T72" s="2">
-        <v>11.659071996</v>
-      </c>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="2">
-        <v>6.525710956</v>
-      </c>
-      <c r="B73" s="2">
-        <v>6.563194456</v>
-      </c>
-      <c r="C73" s="2">
-        <v>6.794261129</v>
-      </c>
-      <c r="D73" s="2">
-        <v>8.13869235</v>
-      </c>
-      <c r="E73" s="2">
-        <v>7.078280448</v>
-      </c>
-      <c r="F73" s="2">
-        <v>6.637518476</v>
-      </c>
-      <c r="G73" s="2">
-        <v>6.624685811</v>
-      </c>
-      <c r="H73" s="2">
-        <v>6.88519084</v>
-      </c>
-      <c r="I73" s="2">
-        <v>6.348761872</v>
-      </c>
-      <c r="J73" s="2">
-        <v>6.456610611</v>
-      </c>
-      <c r="K73" s="2">
-        <v>6.353230859</v>
-      </c>
-      <c r="L73" s="2">
-        <v>6.511391229</v>
-      </c>
-      <c r="M73" s="2">
-        <v>6.407134203</v>
-      </c>
-      <c r="N73" s="2">
-        <v>6.780172593</v>
-      </c>
-      <c r="O73" s="2">
-        <v>6.647328217</v>
-      </c>
-      <c r="P73" s="2">
-        <v>6.557436349</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>6.652329419</v>
-      </c>
-      <c r="R73" s="2">
-        <v>6.451085484</v>
-      </c>
-      <c r="S73" s="2">
-        <v>8.203867673</v>
-      </c>
-      <c r="T73" s="2">
-        <v>6.757121694</v>
-      </c>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="2">
-        <v>6.48168797</v>
-      </c>
-      <c r="B74" s="2">
-        <v>6.633490027</v>
-      </c>
-      <c r="C74" s="2">
-        <v>6.844773006</v>
-      </c>
-      <c r="D74" s="2">
-        <v>7.685980183</v>
-      </c>
-      <c r="E74" s="2">
-        <v>7.320781212</v>
-      </c>
-      <c r="F74" s="2">
-        <v>6.655447242</v>
-      </c>
-      <c r="G74" s="2">
-        <v>6.692630445</v>
-      </c>
-      <c r="H74" s="2">
-        <v>6.907365691</v>
-      </c>
-      <c r="I74" s="2">
-        <v>6.331791362</v>
-      </c>
-      <c r="J74" s="2">
-        <v>6.435160255</v>
-      </c>
-      <c r="K74" s="2">
-        <v>6.491639348</v>
-      </c>
-      <c r="L74" s="2">
-        <v>6.723519557</v>
-      </c>
-      <c r="M74" s="2">
-        <v>6.455530761</v>
-      </c>
-      <c r="N74" s="2">
-        <v>6.890597241</v>
-      </c>
-      <c r="O74" s="2">
-        <v>6.753328193</v>
-      </c>
-      <c r="P74" s="2">
-        <v>6.578378083</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>6.534741975</v>
-      </c>
-      <c r="R74" s="2">
-        <v>6.452686421</v>
-      </c>
-      <c r="S74" s="2">
-        <v>8.344717557</v>
-      </c>
-      <c r="T74" s="2">
-        <v>6.726179226</v>
-      </c>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="A75" s="2">
-        <v>140.2</v>
-      </c>
-      <c r="B75" s="2">
-        <v>145.8</v>
-      </c>
-      <c r="C75" s="2">
-        <v>416.4</v>
-      </c>
-      <c r="D75" s="2">
-        <v>843.1</v>
-      </c>
-      <c r="E75" s="2">
-        <v>139.8</v>
-      </c>
-      <c r="F75" s="2">
-        <v>187.8</v>
-      </c>
-      <c r="G75" s="2">
-        <v>193.3</v>
-      </c>
-      <c r="H75" s="2">
-        <v>147.7</v>
-      </c>
-      <c r="I75" s="2">
-        <v>102.3</v>
-      </c>
-      <c r="J75" s="2">
-        <v>95.3</v>
-      </c>
-      <c r="K75" s="2">
-        <v>100.2</v>
-      </c>
-      <c r="L75" s="2">
-        <v>143.6</v>
-      </c>
-      <c r="M75" s="2">
-        <v>95.3</v>
-      </c>
-      <c r="N75" s="2">
-        <v>250.6</v>
-      </c>
-      <c r="O75" s="2">
-        <v>185.9</v>
-      </c>
-      <c r="P75" s="2">
-        <v>193.3</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>154.7</v>
-      </c>
-      <c r="R75" s="2">
-        <v>124.3</v>
-      </c>
-      <c r="S75" s="2">
-        <v>833.5</v>
-      </c>
-      <c r="T75" s="2">
-        <v>203.5</v>
-      </c>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="A76" s="2">
-        <v>6.541365856</v>
-      </c>
-      <c r="B76" s="2">
-        <v>6.615088344</v>
-      </c>
-      <c r="C76" s="2">
-        <v>6.800936868</v>
-      </c>
-      <c r="D76" s="2">
-        <v>7.515345034</v>
-      </c>
-      <c r="E76" s="2">
-        <v>7.206879472</v>
-      </c>
-      <c r="F76" s="2">
-        <v>6.730736986</v>
-      </c>
-      <c r="G76" s="2">
-        <v>6.646848394</v>
-      </c>
-      <c r="H76" s="2">
-        <v>6.909918792</v>
-      </c>
-      <c r="I76" s="2">
-        <v>6.425897244</v>
-      </c>
-      <c r="J76" s="2">
-        <v>6.443018511</v>
-      </c>
-      <c r="K76" s="2">
-        <v>6.54870083</v>
-      </c>
-      <c r="L76" s="2">
-        <v>6.712510624</v>
-      </c>
-      <c r="M76" s="2">
-        <v>6.408889745</v>
-      </c>
-      <c r="N76" s="2">
-        <v>6.900613833</v>
-      </c>
-      <c r="O76" s="2">
-        <v>6.706612774</v>
-      </c>
-      <c r="P76" s="2">
-        <v>6.642821888</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>6.605087903</v>
-      </c>
-      <c r="R76" s="2">
-        <v>6.493157802</v>
-      </c>
-      <c r="S76" s="2">
-        <v>8.226150674</v>
-      </c>
-      <c r="T76" s="2">
-        <v>6.820817182</v>
-      </c>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="2">
-        <v>6.53454931</v>
-      </c>
-      <c r="B77" s="2">
-        <v>6.48120359</v>
-      </c>
-      <c r="C77" s="2">
-        <v>7.055509695</v>
-      </c>
-      <c r="D77" s="2">
-        <v>7.451136522</v>
-      </c>
-      <c r="E77" s="2">
-        <v>6.635840747</v>
-      </c>
-      <c r="F77" s="2">
-        <v>6.61369301</v>
-      </c>
-      <c r="G77" s="2">
-        <v>6.799223021</v>
-      </c>
-      <c r="H77" s="2">
-        <v>6.926298819</v>
-      </c>
-      <c r="I77" s="2">
-        <v>6.352407116</v>
-      </c>
-      <c r="J77" s="2">
-        <v>6.444135379</v>
-      </c>
-      <c r="K77" s="2">
-        <v>6.484671392</v>
-      </c>
-      <c r="L77" s="2">
-        <v>6.59765177</v>
-      </c>
-      <c r="M77" s="2">
-        <v>6.473361727</v>
-      </c>
-      <c r="N77" s="2">
-        <v>6.787178077</v>
-      </c>
-      <c r="O77" s="2">
-        <v>6.72599428</v>
-      </c>
-      <c r="P77" s="2">
-        <v>6.66175435</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>6.594267723</v>
-      </c>
-      <c r="R77" s="2">
-        <v>6.585384656</v>
-      </c>
-      <c r="S77" s="2">
-        <v>7.079347632</v>
-      </c>
-      <c r="T77" s="2">
-        <v>6.772580079</v>
-      </c>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="2">
-        <v>6.560631261</v>
-      </c>
-      <c r="B78" s="2">
-        <v>6.50639732</v>
-      </c>
-      <c r="C78" s="2">
-        <v>6.807655452</v>
-      </c>
-      <c r="D78" s="2">
-        <v>7.691349709</v>
-      </c>
-      <c r="E78" s="2">
-        <v>6.833986383</v>
-      </c>
-      <c r="F78" s="2">
-        <v>6.635626575</v>
-      </c>
-      <c r="G78" s="2">
-        <v>6.677219615</v>
-      </c>
-      <c r="H78" s="2">
-        <v>7.009964545</v>
-      </c>
-      <c r="I78" s="2">
-        <v>6.370903245</v>
-      </c>
-      <c r="J78" s="2">
-        <v>6.437563842</v>
-      </c>
-      <c r="K78" s="2">
-        <v>6.454293418</v>
-      </c>
-      <c r="L78" s="2">
-        <v>6.544077593</v>
-      </c>
-      <c r="M78" s="2">
-        <v>6.495512439</v>
-      </c>
-      <c r="N78" s="2">
-        <v>6.994078612</v>
-      </c>
-      <c r="O78" s="2">
-        <v>6.518411492</v>
-      </c>
-      <c r="P78" s="2">
-        <v>6.434667938</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>6.638487632</v>
-      </c>
-      <c r="R78" s="2">
-        <v>6.50639732</v>
-      </c>
-      <c r="S78" s="2">
-        <v>7.456109911</v>
-      </c>
-      <c r="T78" s="2">
-        <v>6.695801642</v>
-      </c>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="A79" s="2">
-        <v>6.514084678</v>
-      </c>
-      <c r="B79" s="2">
-        <v>6.694276623</v>
-      </c>
-      <c r="C79" s="2">
-        <v>7.009783305</v>
-      </c>
-      <c r="D79" s="2">
-        <v>7.826035418</v>
-      </c>
-      <c r="E79" s="2">
-        <v>6.778975111</v>
-      </c>
-      <c r="F79" s="2">
-        <v>6.673327586</v>
-      </c>
-      <c r="G79" s="2">
-        <v>6.654908756</v>
-      </c>
-      <c r="H79" s="2">
-        <v>6.856132024</v>
-      </c>
-      <c r="I79" s="2">
-        <v>6.47112164</v>
-      </c>
-      <c r="J79" s="2">
-        <v>6.350972847</v>
-      </c>
-      <c r="K79" s="2">
-        <v>6.53975704</v>
-      </c>
-      <c r="L79" s="2">
-        <v>6.894292316</v>
-      </c>
-      <c r="M79" s="2">
-        <v>6.522673066</v>
-      </c>
-      <c r="N79" s="2">
-        <v>6.895683467</v>
-      </c>
-      <c r="O79" s="2">
-        <v>6.670747284</v>
-      </c>
-      <c r="P79" s="2">
-        <v>6.590836522</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>6.74152477</v>
-      </c>
-      <c r="R79" s="2">
-        <v>6.383198211</v>
-      </c>
-      <c r="S79" s="2">
-        <v>8.203867673</v>
-      </c>
-      <c r="T79" s="2">
-        <v>6.805955713</v>
-      </c>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
-      <c r="A80" s="2">
-        <v>6.588307733</v>
-      </c>
-      <c r="B80" s="2">
-        <v>6.554340342</v>
-      </c>
-      <c r="C80" s="2">
-        <v>6.857865504</v>
-      </c>
-      <c r="D80" s="2">
-        <v>7.611913579</v>
-      </c>
-      <c r="E80" s="2">
-        <v>7.161455845</v>
-      </c>
-      <c r="F80" s="2">
-        <v>6.727136027</v>
-      </c>
-      <c r="G80" s="2">
-        <v>6.728393498</v>
-      </c>
-      <c r="H80" s="2">
-        <v>7.135760581</v>
-      </c>
-      <c r="I80" s="2">
-        <v>6.353688759</v>
-      </c>
-      <c r="J80" s="2">
-        <v>6.484176502</v>
-      </c>
-      <c r="K80" s="2">
-        <v>6.514655825</v>
-      </c>
-      <c r="L80" s="2">
-        <v>6.591787682</v>
-      </c>
-      <c r="M80" s="2">
-        <v>6.44037484</v>
-      </c>
-      <c r="N80" s="2">
-        <v>6.823631096</v>
-      </c>
-      <c r="O80" s="2">
-        <v>6.525464879</v>
-      </c>
-      <c r="P80" s="2">
-        <v>6.552683734</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>6.670484279</v>
-      </c>
-      <c r="R80" s="2">
-        <v>6.4435514</v>
-      </c>
-      <c r="S80" s="2">
-        <v>7.954567463</v>
-      </c>
-      <c r="T80" s="2">
-        <v>6.703448798</v>
-      </c>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="2">
-        <v>132.2</v>
-      </c>
-      <c r="B81" s="2">
-        <v>279.8</v>
-      </c>
-      <c r="C81" s="2">
-        <v>311.9</v>
-      </c>
-      <c r="D81" s="2">
-        <v>572.7</v>
-      </c>
-      <c r="E81" s="2">
-        <v>164.5</v>
-      </c>
-      <c r="F81" s="2">
-        <v>172.7</v>
-      </c>
-      <c r="G81" s="2">
-        <v>172.9</v>
-      </c>
-      <c r="H81" s="2">
-        <v>179</v>
-      </c>
-      <c r="I81" s="2">
-        <v>81.7</v>
-      </c>
-      <c r="J81" s="2">
-        <v>97.1</v>
-      </c>
-      <c r="K81" s="2">
-        <v>100.3</v>
-      </c>
-      <c r="L81" s="2">
-        <v>175</v>
-      </c>
-      <c r="M81" s="2">
-        <v>117.2</v>
-      </c>
-      <c r="N81" s="2">
-        <v>223.3</v>
-      </c>
-      <c r="O81" s="2">
-        <v>198.3</v>
-      </c>
-      <c r="P81" s="2">
-        <v>123</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>162.3</v>
-      </c>
-      <c r="R81" s="2">
-        <v>106.2</v>
-      </c>
-      <c r="S81" s="2">
-        <v>1238.2</v>
-      </c>
-      <c r="T81" s="2">
-        <v>194.8</v>
-      </c>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="2">
-        <v>126.4</v>
-      </c>
-      <c r="B82" s="2">
-        <v>288.1</v>
-      </c>
-      <c r="C82" s="2">
-        <v>288</v>
-      </c>
-      <c r="D82" s="2">
-        <v>886.2</v>
-      </c>
-      <c r="E82" s="2">
-        <v>181.9</v>
-      </c>
-      <c r="F82" s="2">
-        <v>155.6</v>
-      </c>
-      <c r="G82" s="2">
-        <v>173.5</v>
-      </c>
-      <c r="H82" s="2">
-        <v>341.9</v>
-      </c>
-      <c r="I82" s="2">
-        <v>101.3</v>
-      </c>
-      <c r="J82" s="2">
-        <v>99.7</v>
-      </c>
-      <c r="K82" s="2">
-        <v>105.2</v>
-      </c>
-      <c r="L82" s="2">
-        <v>126.9</v>
-      </c>
-      <c r="M82" s="2">
-        <v>104.1</v>
-      </c>
-      <c r="N82" s="2">
-        <v>251.1</v>
-      </c>
-      <c r="O82" s="2">
-        <v>149.4</v>
-      </c>
-      <c r="P82" s="2">
-        <v>167.2</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>169.3</v>
-      </c>
-      <c r="R82" s="2">
-        <v>84</v>
-      </c>
-      <c r="S82" s="2">
-        <v>1511.2</v>
-      </c>
-      <c r="T82" s="2">
-        <v>199.7</v>
-      </c>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="2">
-        <v>6.614176972</v>
-      </c>
-      <c r="B83" s="2">
-        <v>6.606547981</v>
-      </c>
-      <c r="C83" s="2">
-        <v>6.707161894</v>
-      </c>
-      <c r="D83" s="2">
-        <v>7.501384169</v>
-      </c>
-      <c r="E83" s="2">
-        <v>7.153520667</v>
-      </c>
-      <c r="F83" s="2">
-        <v>6.696040195</v>
-      </c>
-      <c r="G83" s="2">
-        <v>6.491929427</v>
-      </c>
-      <c r="H83" s="2">
-        <v>6.978527974</v>
-      </c>
-      <c r="I83" s="2">
-        <v>6.518122941</v>
-      </c>
-      <c r="J83" s="2">
-        <v>6.375279447</v>
-      </c>
-      <c r="K83" s="2">
-        <v>6.388882438</v>
-      </c>
-      <c r="L83" s="2">
-        <v>6.690726371</v>
-      </c>
-      <c r="M83" s="2">
-        <v>6.525472336</v>
-      </c>
-      <c r="N83" s="2">
-        <v>6.761820308</v>
-      </c>
-      <c r="O83" s="2">
-        <v>6.793555315</v>
-      </c>
-      <c r="P83" s="2">
-        <v>6.614176972</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>6.664350771</v>
-      </c>
-      <c r="R83" s="2">
-        <v>6.379691918</v>
-      </c>
-      <c r="S83" s="2">
-        <v>8.037324692</v>
-      </c>
-      <c r="T83" s="2">
-        <v>6.795050117</v>
-      </c>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="2">
-        <v>6.469719333</v>
-      </c>
-      <c r="B84" s="2">
-        <v>6.659360556</v>
-      </c>
-      <c r="C84" s="2">
-        <v>6.892836233</v>
-      </c>
-      <c r="D84" s="2">
-        <v>7.810591525</v>
-      </c>
-      <c r="E84" s="2">
-        <v>7.156393727</v>
-      </c>
-      <c r="F84" s="2">
-        <v>6.912119465</v>
-      </c>
-      <c r="G84" s="2">
-        <v>6.774448226</v>
-      </c>
-      <c r="H84" s="2">
-        <v>6.877393698</v>
-      </c>
-      <c r="I84" s="2">
-        <v>6.325851523</v>
-      </c>
-      <c r="J84" s="2">
-        <v>6.429476486</v>
-      </c>
-      <c r="K84" s="2">
-        <v>6.423370072</v>
-      </c>
-      <c r="L84" s="2">
-        <v>6.640520398</v>
-      </c>
-      <c r="M84" s="2">
-        <v>6.505422171</v>
-      </c>
-      <c r="N84" s="2">
-        <v>6.876090068</v>
-      </c>
-      <c r="O84" s="2">
-        <v>6.563521345</v>
-      </c>
-      <c r="P84" s="2">
-        <v>6.756438774</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>6.711298234</v>
-      </c>
-      <c r="R84" s="2">
-        <v>6.423370072</v>
-      </c>
-      <c r="S84" s="2">
-        <v>8.205518657</v>
-      </c>
-      <c r="T84" s="2">
-        <v>6.904524239</v>
-      </c>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="2">
-        <v>10.26044929</v>
-      </c>
-      <c r="B85" s="2">
-        <v>8.271850711</v>
-      </c>
-      <c r="C85" s="2">
-        <v>7.038847805</v>
-      </c>
-      <c r="D85" s="2">
-        <v>7.052986007</v>
-      </c>
-      <c r="E85" s="2">
-        <v>9.803351572</v>
-      </c>
-      <c r="F85" s="2">
-        <v>8.7074351245</v>
-      </c>
-      <c r="G85" s="2">
-        <v>9.284891922</v>
-      </c>
-      <c r="H85" s="2">
-        <v>7.2523871895</v>
-      </c>
-      <c r="I85" s="2">
-        <v>9.6955029546</v>
-      </c>
-      <c r="J85" s="2">
-        <v>7.297366508</v>
-      </c>
-      <c r="K85" s="2">
-        <v>8.72882070369231</v>
-      </c>
-      <c r="L85" s="2">
-        <v>7.029346085</v>
-      </c>
-      <c r="M85" s="2">
-        <v>8.172274347</v>
-      </c>
-      <c r="N85" s="2">
-        <v>11.16322945</v>
-      </c>
-      <c r="O85" s="2">
-        <v>10.7055497645</v>
-      </c>
-      <c r="P85" s="2">
-        <v>7.990856212</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>8.318577271</v>
-      </c>
-      <c r="R85" s="2">
-        <v>7.098305476</v>
-      </c>
-      <c r="S85" s="2">
-        <v>7.8482574918</v>
-      </c>
-      <c r="T85" s="2">
-        <v>11.7091990915</v>
-      </c>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22">
-      <c r="A86" s="2">
-        <v>6.582287172</v>
-      </c>
-      <c r="B86" s="2">
-        <v>6.571192826</v>
-      </c>
-      <c r="C86" s="2">
-        <v>6.695543166</v>
-      </c>
-      <c r="D86" s="2">
-        <v>7.352007683</v>
-      </c>
-      <c r="E86" s="2">
-        <v>7.22368916</v>
-      </c>
-      <c r="F86" s="2">
-        <v>6.697543496</v>
-      </c>
-      <c r="G86" s="2">
-        <v>6.720887539</v>
-      </c>
-      <c r="H86" s="2">
-        <v>6.715370447</v>
-      </c>
-      <c r="I86" s="2">
-        <v>6.472804931</v>
-      </c>
-      <c r="J86" s="2">
-        <v>6.441616269</v>
-      </c>
-      <c r="K86" s="2">
-        <v>6.438019516</v>
-      </c>
-      <c r="L86" s="2">
-        <v>6.646155798</v>
-      </c>
-      <c r="M86" s="2">
-        <v>6.457541137</v>
-      </c>
-      <c r="N86" s="2">
-        <v>6.957339776</v>
-      </c>
-      <c r="O86" s="2">
-        <v>6.635940913</v>
-      </c>
-      <c r="P86" s="2">
-        <v>6.664503158</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>6.686540546</v>
-      </c>
-      <c r="R86" s="2">
-        <v>6.495816966</v>
-      </c>
-      <c r="S86" s="2">
-        <v>8.210380283</v>
-      </c>
-      <c r="T86" s="2">
-        <v>6.755742815</v>
-      </c>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="A87" s="2">
-        <v>6.470691795</v>
-      </c>
-      <c r="B87" s="2">
-        <v>6.424714183</v>
-      </c>
-      <c r="C87" s="2">
-        <v>6.723532558</v>
-      </c>
-      <c r="D87" s="2">
-        <v>7.968768262</v>
-      </c>
-      <c r="E87" s="2">
-        <v>7.15772708</v>
-      </c>
-      <c r="F87" s="2">
-        <v>6.741781558</v>
-      </c>
-      <c r="G87" s="2">
-        <v>6.682519792</v>
-      </c>
-      <c r="H87" s="2">
-        <v>7.111510799</v>
-      </c>
-      <c r="I87" s="2">
-        <v>6.375544245</v>
-      </c>
-      <c r="J87" s="2">
-        <v>6.355741216</v>
-      </c>
-      <c r="K87" s="2">
-        <v>6.479422288</v>
-      </c>
-      <c r="L87" s="2">
-        <v>6.674158633</v>
-      </c>
-      <c r="M87" s="2">
-        <v>6.47510805</v>
-      </c>
-      <c r="N87" s="2">
-        <v>6.91044429</v>
-      </c>
-      <c r="O87" s="2">
-        <v>6.638294542</v>
-      </c>
-      <c r="P87" s="2">
-        <v>6.619587684</v>
-      </c>
-      <c r="Q87" s="2">
-        <v>6.623895421</v>
-      </c>
-      <c r="R87" s="2">
-        <v>6.503265433</v>
-      </c>
-      <c r="S87" s="2">
-        <v>8.249817778</v>
-      </c>
-      <c r="T87" s="2">
-        <v>6.75273585</v>
-      </c>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="A88" s="2">
-        <v>6.476875402</v>
-      </c>
-      <c r="B88" s="2">
-        <v>6.586199997</v>
-      </c>
-      <c r="C88" s="2">
-        <v>6.778142854</v>
-      </c>
-      <c r="D88" s="2">
-        <v>7.935862405</v>
-      </c>
-      <c r="E88" s="2">
-        <v>6.690942492</v>
-      </c>
-      <c r="F88" s="2">
-        <v>6.646553567</v>
-      </c>
-      <c r="G88" s="2">
-        <v>6.644948103</v>
-      </c>
-      <c r="H88" s="2">
-        <v>6.631925368</v>
-      </c>
-      <c r="I88" s="2">
-        <v>6.471299736</v>
-      </c>
-      <c r="J88" s="2">
-        <v>6.423690212</v>
-      </c>
-      <c r="K88" s="2">
-        <v>6.469347221</v>
-      </c>
-      <c r="L88" s="2">
-        <v>6.542453374</v>
-      </c>
-      <c r="M88" s="2">
-        <v>6.331974723</v>
-      </c>
-      <c r="N88" s="2">
-        <v>7.088588876</v>
-      </c>
-      <c r="O88" s="2">
-        <v>6.55583076</v>
-      </c>
-      <c r="P88" s="2">
-        <v>6.748263145</v>
-      </c>
-      <c r="Q88" s="2">
-        <v>6.528541553</v>
-      </c>
-      <c r="R88" s="2">
-        <v>6.492688701</v>
-      </c>
-      <c r="S88" s="2">
-        <v>7.276620731</v>
-      </c>
-      <c r="T88" s="2">
-        <v>7.083400811</v>
-      </c>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="A89" s="2">
-        <v>6.529307838</v>
-      </c>
-      <c r="B89" s="2">
-        <v>6.510464664</v>
-      </c>
-      <c r="C89" s="2">
-        <v>6.732282123</v>
-      </c>
-      <c r="D89" s="2">
-        <v>7.34431916</v>
-      </c>
-      <c r="E89" s="2">
-        <v>7.245373872</v>
-      </c>
-      <c r="F89" s="2">
-        <v>6.670936079</v>
-      </c>
-      <c r="G89" s="2">
-        <v>6.732282123</v>
-      </c>
-      <c r="H89" s="2">
-        <v>6.993976212</v>
-      </c>
-      <c r="I89" s="2">
-        <v>6.413035499</v>
-      </c>
-      <c r="J89" s="2">
-        <v>6.434572631</v>
-      </c>
-      <c r="K89" s="2">
-        <v>6.464788829</v>
-      </c>
-      <c r="L89" s="2">
-        <v>6.585767352</v>
-      </c>
-      <c r="M89" s="2">
-        <v>6.523345386</v>
-      </c>
-      <c r="N89" s="2">
-        <v>6.878369189</v>
-      </c>
-      <c r="O89" s="2">
-        <v>6.651967397</v>
-      </c>
-      <c r="P89" s="2">
-        <v>6.488410187</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>6.6273289</v>
-      </c>
-      <c r="R89" s="2">
-        <v>6.562889293</v>
-      </c>
-      <c r="S89" s="2">
-        <v>8.046344498</v>
-      </c>
-      <c r="T89" s="2">
-        <v>6.733528662</v>
-      </c>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22">
-      <c r="A90" s="2">
-        <v>6.604431444</v>
-      </c>
-      <c r="B90" s="2">
-        <v>6.568010383</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6.800376085</v>
-      </c>
-      <c r="D90" s="2">
-        <v>7.708748893</v>
-      </c>
-      <c r="E90" s="2">
-        <v>7.084707169</v>
-      </c>
-      <c r="F90" s="2">
-        <v>6.763749848</v>
-      </c>
-      <c r="G90" s="2">
-        <v>6.693035526</v>
-      </c>
-      <c r="H90" s="2">
-        <v>7.053887104</v>
-      </c>
-      <c r="I90" s="2">
-        <v>6.426883719</v>
-      </c>
-      <c r="J90" s="2">
-        <v>6.435692086</v>
-      </c>
-      <c r="K90" s="2">
-        <v>6.409257572</v>
-      </c>
-      <c r="L90" s="2">
-        <v>6.63672128</v>
-      </c>
-      <c r="M90" s="2">
-        <v>6.499101764</v>
-      </c>
-      <c r="N90" s="2">
-        <v>6.728477722</v>
-      </c>
-      <c r="O90" s="2">
-        <v>6.713548537</v>
-      </c>
-      <c r="P90" s="2">
-        <v>6.607390205</v>
-      </c>
-      <c r="Q90" s="2">
-        <v>6.6559174</v>
-      </c>
-      <c r="R90" s="2">
-        <v>6.607390205</v>
-      </c>
-      <c r="S90" s="2">
-        <v>7.41530315</v>
-      </c>
-      <c r="T90" s="2">
-        <v>6.793366421</v>
-      </c>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22">
-      <c r="A91" s="2">
-        <v>6.580403947</v>
-      </c>
-      <c r="B91" s="2">
-        <v>6.698694746</v>
-      </c>
-      <c r="C91" s="2">
-        <v>6.932296317</v>
-      </c>
-      <c r="D91" s="2">
-        <v>7.478894785</v>
-      </c>
-      <c r="E91" s="2">
-        <v>7.127284433</v>
-      </c>
-      <c r="F91" s="2">
-        <v>6.622379588</v>
-      </c>
-      <c r="G91" s="2">
-        <v>6.700373659</v>
-      </c>
-      <c r="H91" s="2">
-        <v>6.757194732</v>
-      </c>
-      <c r="I91" s="2">
-        <v>6.450166497</v>
-      </c>
-      <c r="J91" s="2">
-        <v>6.578636862</v>
-      </c>
-      <c r="K91" s="2">
-        <v>6.487384515</v>
-      </c>
-      <c r="L91" s="2">
-        <v>6.624149647</v>
-      </c>
-      <c r="M91" s="2">
-        <v>6.480311291</v>
-      </c>
-      <c r="N91" s="2">
-        <v>7.012632519</v>
-      </c>
-      <c r="O91" s="2">
-        <v>6.541815709</v>
-      </c>
-      <c r="P91" s="2">
-        <v>6.582075656</v>
-      </c>
-      <c r="Q91" s="2">
-        <v>6.564762848</v>
-      </c>
-      <c r="R91" s="2">
-        <v>6.538331222</v>
-      </c>
-      <c r="S91" s="2">
-        <v>8.110941857</v>
-      </c>
-      <c r="T91" s="2">
-        <v>6.609189294</v>
-      </c>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22">
-      <c r="A92" s="2">
-        <v>6.531344325</v>
-      </c>
-      <c r="B92" s="2">
-        <v>6.765332674</v>
-      </c>
-      <c r="C92" s="2">
-        <v>6.799956895</v>
-      </c>
-      <c r="D92" s="2">
-        <v>7.3777972</v>
-      </c>
-      <c r="E92" s="2">
-        <v>7.092737009</v>
-      </c>
-      <c r="F92" s="2">
-        <v>6.763405251</v>
-      </c>
-      <c r="G92" s="2">
-        <v>6.581595148</v>
-      </c>
-      <c r="H92" s="2">
-        <v>6.961948491</v>
-      </c>
-      <c r="I92" s="2">
-        <v>6.488612938</v>
-      </c>
-      <c r="J92" s="2">
-        <v>6.362703656</v>
-      </c>
-      <c r="K92" s="2">
-        <v>6.539288079</v>
-      </c>
-      <c r="L92" s="2">
-        <v>6.840334341</v>
-      </c>
-      <c r="M92" s="2">
-        <v>6.46325967</v>
-      </c>
-      <c r="N92" s="2">
-        <v>6.772777997</v>
-      </c>
-      <c r="O92" s="2">
-        <v>6.595500819</v>
-      </c>
-      <c r="P92" s="2">
-        <v>6.600497026</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>6.695085747</v>
-      </c>
-      <c r="R92" s="2">
-        <v>6.416767374</v>
-      </c>
-      <c r="S92" s="2">
-        <v>8.30956297</v>
-      </c>
-      <c r="T92" s="2">
-        <v>6.954786232</v>
-      </c>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="A93" s="2">
-        <v>157.4</v>
-      </c>
-      <c r="B93" s="2">
-        <v>138.8</v>
-      </c>
-      <c r="C93" s="2">
-        <v>215.5</v>
-      </c>
-      <c r="D93" s="2">
-        <v>505.4</v>
-      </c>
-      <c r="E93" s="2">
-        <v>222.3</v>
-      </c>
-      <c r="F93" s="2">
-        <v>207</v>
-      </c>
-      <c r="G93" s="2">
-        <v>187.3</v>
-      </c>
-      <c r="H93" s="2">
-        <v>248.6</v>
-      </c>
-      <c r="I93" s="2">
-        <v>116.8</v>
-      </c>
-      <c r="J93" s="2">
-        <v>89.6</v>
-      </c>
-      <c r="K93" s="2">
-        <v>104.6</v>
-      </c>
-      <c r="L93" s="2">
-        <v>180.9</v>
-      </c>
-      <c r="M93" s="2">
-        <v>121.4</v>
-      </c>
-      <c r="N93" s="2">
-        <v>236.9</v>
-      </c>
-      <c r="O93" s="2">
-        <v>170.4</v>
-      </c>
-      <c r="P93" s="2">
-        <v>156.9</v>
-      </c>
-      <c r="Q93" s="2">
-        <v>184</v>
-      </c>
-      <c r="R93" s="2">
-        <v>87.7</v>
-      </c>
-      <c r="S93" s="2">
-        <v>863.2</v>
-      </c>
-      <c r="T93" s="2">
-        <v>199</v>
-      </c>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22">
-      <c r="A94" s="2">
-        <v>6.437310186</v>
-      </c>
-      <c r="B94" s="2">
-        <v>6.493645809</v>
-      </c>
-      <c r="C94" s="2">
-        <v>6.745218121</v>
-      </c>
-      <c r="D94" s="2">
-        <v>7.117259667</v>
-      </c>
-      <c r="E94" s="2">
-        <v>7.134802775</v>
-      </c>
-      <c r="F94" s="2">
-        <v>6.593165219</v>
-      </c>
-      <c r="G94" s="2">
-        <v>6.608041797</v>
-      </c>
-      <c r="H94" s="2">
-        <v>6.997701021</v>
-      </c>
-      <c r="I94" s="2">
-        <v>6.497293009</v>
-      </c>
-      <c r="J94" s="2">
-        <v>6.372205889</v>
-      </c>
-      <c r="K94" s="2">
-        <v>6.484686735</v>
-      </c>
-      <c r="L94" s="2">
-        <v>6.524218935</v>
-      </c>
-      <c r="M94" s="2">
-        <v>6.476285239</v>
-      </c>
-      <c r="N94" s="2">
-        <v>6.802836364</v>
-      </c>
-      <c r="O94" s="2">
-        <v>6.489698896</v>
-      </c>
-      <c r="P94" s="2">
-        <v>6.467516276</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>6.712530276</v>
-      </c>
-      <c r="R94" s="2">
-        <v>6.536756013</v>
-      </c>
-      <c r="S94" s="2">
-        <v>7.976525937</v>
-      </c>
-      <c r="T94" s="2">
-        <v>6.68057218</v>
-      </c>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22">
-      <c r="A95" s="2">
-        <v>6.541937366</v>
-      </c>
-      <c r="B95" s="2">
-        <v>6.528199197</v>
-      </c>
-      <c r="C95" s="2">
-        <v>6.78460992</v>
-      </c>
-      <c r="D95" s="2">
-        <v>7.687330688</v>
-      </c>
-      <c r="E95" s="2">
-        <v>7.144483448</v>
-      </c>
-      <c r="F95" s="2">
-        <v>6.860859366</v>
-      </c>
-      <c r="G95" s="2">
-        <v>6.604050137</v>
-      </c>
-      <c r="H95" s="2">
-        <v>7.272849696</v>
-      </c>
-      <c r="I95" s="2">
-        <v>6.390717631</v>
-      </c>
-      <c r="J95" s="2">
-        <v>6.512320962</v>
-      </c>
-      <c r="K95" s="2">
-        <v>6.420076511</v>
-      </c>
-      <c r="L95" s="2">
-        <v>6.616104196</v>
-      </c>
-      <c r="M95" s="2">
-        <v>6.514911265</v>
-      </c>
-      <c r="N95" s="2">
-        <v>6.829529457</v>
-      </c>
-      <c r="O95" s="2">
-        <v>6.629471115</v>
-      </c>
-      <c r="P95" s="2">
-        <v>6.665917886</v>
-      </c>
-      <c r="Q95" s="2">
-        <v>6.623749135</v>
-      </c>
-      <c r="R95" s="2">
-        <v>6.421435716</v>
-      </c>
-      <c r="S95" s="2">
-        <v>6.958447763</v>
-      </c>
-      <c r="T95" s="2">
-        <v>6.851085683</v>
-      </c>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2">
         <v>1</v>
       </c>
     </row>

--- a/data/merge_external_validation.xlsx
+++ b/data/merge_external_validation.xlsx
@@ -102,16 +102,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -457,27 +449,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,144 +575,140 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1271,3386 +1244,3327 @@
   <sheetPr/>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A52" sqref="$A52:$XFD95"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="3" width="12.9230769230769"/>
-    <col min="4" max="4" width="11.7692307692308"/>
-    <col min="5" max="7" width="12.9230769230769"/>
-    <col min="8" max="8" width="11.7692307692308"/>
-    <col min="9" max="15" width="12.9230769230769"/>
-    <col min="16" max="16" width="11.7692307692308"/>
-    <col min="17" max="18" width="12.9230769230769"/>
-    <col min="19" max="19" width="11.7692307692308"/>
-    <col min="20" max="20" width="12.9230769230769"/>
+    <col min="1" max="21" width="12.9230769230769"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>9.867727329</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>8.0733598185</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>7.00766706</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>7.006043223</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>9.642101724</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>8.6588169865</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>9.107064601</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>7.3811637115</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>9.8028237954</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>7.40241264</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>8.63816766315385</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>7.076199163</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>8.199950424</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>10.68996222</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2">
         <v>9.527715866</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2">
         <v>11.09758587</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2">
         <v>7.5626872445</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2">
         <v>7.052937096</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2">
         <v>8.0112134906</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2">
         <v>11.5871763575</v>
       </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2">
+      <c r="V2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>10.60234597</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>8.2511483235</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>6.977405665</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>7.045047285</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>7.823755836</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>9.5757912445</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>8.87027758</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>7.7885976275</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
         <v>9.9514541967</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>7.526452739</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>8.25597223315385</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3">
         <v>6.959521733</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3">
         <v>8.246378912</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>10.25191263</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>11.2929690625</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>12.90212643</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>7.9806049425</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3">
         <v>7.045744813</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3">
         <v>8.2042057508</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3">
         <v>10.5937622355</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2">
+      <c r="V3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>6.451164003</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>6.463454309</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>6.813200943</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>7.380557953</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>6.790294188</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>6.74006663</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>6.644532724</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>6.655965089</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
         <v>6.455096245</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>6.378718038</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>6.376859241</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>6.618336555</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4">
         <v>6.557126318</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>6.788542786</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>6.738674562</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>6.704582174</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>6.746783017</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4">
         <v>6.479018015</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4">
         <v>7.008103095</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4">
         <v>6.657224862</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2">
+      <c r="V4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>6.51079242</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>6.669894028</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>6.876984614</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>7.807085005</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>6.867631757</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>6.811951091</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>6.572543241</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>6.961295336</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>6.486193362</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>6.488360451</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>6.490386756</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5">
         <v>6.664943294</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>6.551234013</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>6.858975614</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5">
         <v>6.623829246</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5">
         <v>6.497627571</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5">
         <v>6.677481396</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5">
         <v>6.374766262</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5">
         <v>8.153010294</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5">
         <v>6.680806568</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2">
+      <c r="V5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>122.2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>225.9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>257.3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>997.9</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>139.5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>171.1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>176.6</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>201</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>107.7</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>102.5</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>119.9</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>109.3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>84</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>252.4</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6">
         <v>154.4</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6">
         <v>149.1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6">
         <v>165</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6">
         <v>103.8</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6">
         <v>1664.5</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <v>205.6</v>
       </c>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2">
+      <c r="V6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>6.523397665</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>6.665785949</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>6.791674557</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>7.76702731</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>7.153081491</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>6.787044334</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>6.64856816</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>6.938789861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>6.437072344</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>6.389935501</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>6.612591215</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>6.675490001</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>6.486990126</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>6.758423112</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>6.638522109</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7">
         <v>6.587793586</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7">
         <v>6.682024772</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7">
         <v>6.447508354</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7">
         <v>7.847512289</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7">
         <v>6.760632833</v>
       </c>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2">
+      <c r="V7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>125.6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>172</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>224.1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>979.1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>196.3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>181.4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>157.5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8">
         <v>315.7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8">
         <v>87.5</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>92.6</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>98.4</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8">
         <v>146.1</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8">
         <v>111.1</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>174.1</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <v>217.6</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8">
         <v>152.6</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8">
         <v>207</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8">
         <v>94.3</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8">
         <v>1031.5</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8">
         <v>250.9</v>
       </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2">
+      <c r="V8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>6.465185445</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>6.667229839</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>6.755389941</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>8.149984163</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>6.99595285</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>6.759301699</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>6.692132239</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9">
         <v>7.154697578</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9">
         <v>6.511692423</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>6.36280383</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>6.526679943</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9">
         <v>6.702139696</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9">
         <v>6.541941053</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>6.840289376</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9">
         <v>6.615298579</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9">
         <v>6.543945072</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9">
         <v>6.551332904</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9">
         <v>6.536260169</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9">
         <v>7.529112585</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9">
         <v>6.794886166</v>
       </c>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2">
+      <c r="V9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>138.2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>156.6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>204.8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>686</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>262</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>185.2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>192.8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>218.5</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>116.8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>101.6</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>102.6</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>120.9</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>83.9</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>227.8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10">
         <v>162.4</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10">
         <v>187.7</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10">
         <v>192.9</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10">
         <v>93.2</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10">
         <v>983.3</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10">
         <v>201.9</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2">
+      <c r="V10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>6.479064223</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>6.624532641</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>6.924727687</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>8.080501588</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>7.247324004</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>6.817062831</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>6.630723029</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>6.810617536</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>6.54884759</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>6.42360218</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>6.569443351</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>6.703544379</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>6.454908306</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>6.870561411</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11">
         <v>6.604438504</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11">
         <v>6.639938424</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11">
         <v>6.613236955</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11">
         <v>6.531166061</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11">
         <v>7.919972794</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11">
         <v>6.697477304</v>
       </c>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2">
+      <c r="V11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>6.535830793</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>6.55518437</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>6.782963898</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>8.248616606</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>6.664218691</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>6.705428331</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>6.542390726</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>6.729950853</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>6.508647473</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>7.499016317</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>6.508647473</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>6.545872786</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>6.446689478</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>6.797034601</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12">
         <v>6.66934741</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12">
         <v>6.57609018</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12">
         <v>6.677957848</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12">
         <v>6.465966693</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12">
         <v>7.580473939</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12">
         <v>6.659265401</v>
       </c>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2">
+      <c r="V12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>6.540096664</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>6.438490889</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>6.795427441</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>7.752514456</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>7.009212787</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>6.783612555</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>6.652698178</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>7.036984696</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>6.459173972</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>6.37882949</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>6.558668521</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>6.641604516</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>6.469320084</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>6.772017591</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13">
         <v>6.658599142</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13">
         <v>6.609104847</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13">
         <v>6.695052595</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13">
         <v>6.416188298</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13">
         <v>7.709421937</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13">
         <v>6.838108376</v>
       </c>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2">
+      <c r="V13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>6.543459058</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>6.631367635</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>6.746389552</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>7.253359021</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14">
         <v>7.249271504</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>6.893021214</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>6.619217351</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14">
         <v>6.77288794</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14">
         <v>6.291348332</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>6.382794865</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>6.545288122</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14">
         <v>6.590783067</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
         <v>6.545288122</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>6.681820694</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14">
         <v>6.71133757</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14">
         <v>6.631367635</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14">
         <v>6.881399514</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14">
         <v>6.47844799</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14">
         <v>7.920382632</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14">
         <v>6.878047992</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2">
+      <c r="V14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>10.06282174</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>7.923799903</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>6.921861769</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>7.033822934</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15">
         <v>10.31972588</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>8.8214426015</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>9.367509778</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15">
         <v>7.6242812955</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15">
         <v>9.9254138861</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>7.490289525</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>8.55787385423077</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15">
         <v>7.090258956</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
         <v>8.298225163</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>11.38112912</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15">
         <v>9.196543733</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15">
         <v>10.54133107</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15">
         <v>7.431134767</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15">
         <v>9.199751334</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15">
         <v>7.9618945646</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15">
         <v>12.1760314325</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2">
+      <c r="V15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>61.31</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>296.7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>316.3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>1134</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16">
         <v>163</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>225.6</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>33.26</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16">
         <v>600.8</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16">
         <v>457.9</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>67.34</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>132.2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16">
         <v>180.3</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16">
         <v>90.59</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>70.51</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16">
         <v>43.09</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16">
         <v>33.01</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16">
         <v>207.6</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16">
         <v>220.9</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16">
         <v>2034</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16">
         <v>607.4</v>
       </c>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2">
+      <c r="V16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>345.8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>1133</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>1472</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>1480</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17">
         <v>201.3</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>369.7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>401.5</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17">
         <v>1293</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17">
         <v>4522</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>146.2</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>336.7</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17">
         <v>133.4</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17">
         <v>580.9</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>75.78</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17">
         <v>22.95</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17">
         <v>63.15</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17">
         <v>937.5</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17">
         <v>228.4</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17">
         <v>7579</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17">
         <v>833.3</v>
       </c>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2">
+      <c r="V17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>6.535016109</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>6.740901868</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>6.798717109</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>8.306876523</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18">
         <v>7.184313359</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>6.770055022</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>6.568191391</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18">
         <v>7.020950845</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18">
         <v>6.460492952</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>6.373271192</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <v>6.524980058</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18">
         <v>6.652800595</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18">
         <v>6.521697644</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18">
         <v>6.803005566</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18">
         <v>6.702251857</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18">
         <v>6.602919748</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18">
         <v>6.722713218</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18">
         <v>6.478498069</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18">
         <v>8.328959101</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18">
         <v>6.85129692</v>
       </c>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2">
+      <c r="V18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>6.564102298</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>6.705780475</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>6.833652139</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
         <v>7.807453061</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19">
         <v>7.071523655</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>6.673566519</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>6.634448062</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19">
         <v>6.917107771</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19">
         <v>6.458439815</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>6.445314452</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>6.548084275</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19">
         <v>6.667817802</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19">
         <v>6.578435594</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>6.744295669</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19">
         <v>6.660630949</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19">
         <v>6.497946854</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19">
         <v>6.539291772</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19">
         <v>6.539291772</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19">
         <v>7.835292504</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19">
         <v>6.937607822</v>
       </c>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2">
+      <c r="V19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>6.780206971</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>6.689062819</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>6.861766357</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>7.796174066</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>6.879997431</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>6.754493061</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>6.660902546</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>6.998340591</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>6.411022643</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>6.491914161</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>6.468784996</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20">
         <v>6.681315394</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20">
         <v>6.560219998</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>6.730937495</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20">
         <v>6.660902546</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20">
         <v>6.707036963</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20">
         <v>6.595387148</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20">
         <v>6.468784996</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20">
         <v>7.887285904</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20">
         <v>6.859798025</v>
       </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2">
+      <c r="V20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>6.549225429</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>6.854322243</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>6.832166677</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>7.562117014</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>6.670861912</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>6.804143316</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>6.770394889</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>6.823803941</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>6.434544832</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>6.44856276</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>6.625879278</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21">
         <v>6.624024281</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21">
         <v>6.545736753</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>6.761430924</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21">
         <v>6.648800959</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21">
         <v>6.575629283</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q21">
         <v>6.598297139</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21">
         <v>6.428380114</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21">
         <v>8.095849089</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21">
         <v>6.690536823</v>
       </c>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2">
+      <c r="V21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>10.24944475</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>8.0365734045</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>6.987841534</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>7.049123681</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>10.27970025</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>9.478885042</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>8.039772675</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>7.7223251375</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>9.7681487898</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>7.323200221</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
         <v>8.39973504046154</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22">
         <v>6.993134888</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22">
         <v>8.27708797</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>10.0910366</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22">
         <v>10.895795902</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22">
         <v>13.75844957</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22">
         <v>11.7880949555</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22">
         <v>7.052946694</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22">
         <v>7.9483069798</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22">
         <v>10.491604502</v>
       </c>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2">
+      <c r="V22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>6.591798366</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>6.642539989</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>6.993526108</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>7.10249567</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>6.906647263</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>6.790945762</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>6.438558215</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>6.765629458</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>6.440442079</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>6.314510955</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <v>6.348896733</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23">
         <v>6.672411871</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23">
         <v>6.560016144</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>6.849099736</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23">
         <v>6.808777287</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23">
         <v>6.513460667</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23">
         <v>6.650860276</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23">
         <v>6.411478706</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23">
         <v>7.816334562</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23">
         <v>6.788642213</v>
       </c>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2">
+      <c r="V23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>6.500619975</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>6.638980582</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>6.796969731</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>7.872491669</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>6.911069498</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>6.705178157</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>6.552409277</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>6.843894139</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>6.607823459</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>6.470412909</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <v>6.480988258</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24">
         <v>6.709494147</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24">
         <v>6.490008474</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24">
         <v>6.808495378</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24">
         <v>6.847442192</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24">
         <v>6.679527016</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24">
         <v>6.703524604</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24">
         <v>6.437508358</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24">
         <v>8.113685122</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24">
         <v>6.754664847</v>
       </c>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2">
+      <c r="V24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>144.2</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>193.5</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>195.9</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>989.3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>229.4</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>192</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>174.4</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>225</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>88.8</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>93.9</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <v>114.7</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25">
         <v>180.4</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25">
         <v>102.6</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>183.8</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25">
         <v>144</v>
       </c>
-      <c r="P25" s="2">
+      <c r="P25">
         <v>135.8</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25">
         <v>115.1</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25">
         <v>83.3</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25">
         <v>1294.9</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25">
         <v>305.1</v>
       </c>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2">
+      <c r="V25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>6.487101179</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>6.654087008</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>6.701733864</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>7.33207279</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>6.845245101</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>6.654087008</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>6.555414474</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>6.88512691</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>6.447327296</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>6.380706364</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
         <v>6.383745429</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26">
         <v>6.684651786</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26">
         <v>6.569146742</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26">
         <v>6.829336153</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26">
         <v>6.614969197</v>
       </c>
-      <c r="P26" s="2">
+      <c r="P26">
         <v>6.560438382</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26">
         <v>6.569146742</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26">
         <v>6.475015378</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26">
         <v>7.634779941</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26">
         <v>6.931863124</v>
       </c>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2">
+      <c r="V26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>6.540775673</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>6.546622574</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>6.887031987</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>8.378038822</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>7.083147504</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>6.675876405</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>6.592784481</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>6.979012734</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>6.492677258</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <v>6.522717897</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27">
         <v>6.552892286</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27">
         <v>6.71448104</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27">
         <v>6.463532158</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>6.847967089</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27">
         <v>6.555969495</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27">
         <v>6.567934352</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27">
         <v>6.602587527</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27">
         <v>6.443874985</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27">
         <v>7.1797551</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27">
         <v>6.764530421</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2">
+      <c r="V27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>6.655934432</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>6.541480176</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>6.800111023</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>7.741579341</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>6.955027117</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28">
         <v>6.673586709</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>6.718798681</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>7.029132069</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <v>6.425865282</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28">
         <v>6.436485499</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28">
         <v>6.508809681</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <v>6.453588127</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28">
         <v>6.455037517</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28">
         <v>6.70934644</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28">
         <v>6.725578875</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28">
         <v>6.543076023</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28">
         <v>6.63314401</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28">
         <v>6.640017641</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28">
         <v>7.380557953</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28">
         <v>6.996399508</v>
       </c>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2">
+      <c r="V28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>6.50854184</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>6.493283632</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>6.775699631</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>7.621102963</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>7.195270253</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>6.762101992</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>6.73928235</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
         <v>7.005929255</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>6.455096245</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
         <v>6.331403242</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <v>6.485603166</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <v>6.590102239</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29">
         <v>6.597779448</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>6.775699631</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29">
         <v>6.819090299</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29">
         <v>6.574375474</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29">
         <v>6.700558617</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29">
         <v>6.474914977</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29">
         <v>7.572164242</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29">
         <v>6.75732492</v>
       </c>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2">
+      <c r="V29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>6.393968543</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>6.497118093</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>6.886550147</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30">
         <v>7.531102921</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30">
         <v>6.699709598</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>6.857844774</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>6.810084993</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30">
         <v>6.792963776</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30">
         <v>6.553909002</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30">
         <v>6.404723935</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30">
         <v>6.520620551</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30">
         <v>6.985898847</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30">
         <v>6.466192049</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30">
         <v>7.269255833</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30">
         <v>6.792963776</v>
       </c>
-      <c r="P30" s="2">
+      <c r="P30">
         <v>6.732915215</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="Q30">
         <v>6.623696886</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30">
         <v>6.50225785</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30">
         <v>7.364134655</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30">
         <v>6.854343024</v>
       </c>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2">
+      <c r="V30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>137.9</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>381.4</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>282.2</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31">
         <v>369.1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31">
         <v>169.3</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>179.7</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>184.5</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31">
         <v>193</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31">
         <v>109.6</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31">
         <v>81.6</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31">
         <v>123.1</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31">
         <v>184.3</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31">
         <v>96.2</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31">
         <v>232.4</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31">
         <v>151.9</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P31">
         <v>134.3</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31">
         <v>184.2</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31">
         <v>98.9</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31">
         <v>1221.4</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31">
         <v>255.2</v>
       </c>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2">
+      <c r="V31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>17.23</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>207.2</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>57.57</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32">
         <v>150</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32">
         <v>32.42</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>100.5</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>130.5</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32">
         <v>258.7</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32">
         <v>8.407</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32">
         <v>734.9</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32">
         <v>127.5</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32">
         <v>15.14</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32">
         <v>169.1</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32">
         <v>315.6</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32">
         <v>1861</v>
       </c>
-      <c r="P32" s="2">
+      <c r="P32">
         <v>32.94</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="Q32">
         <v>1096</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32">
         <v>103.5</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32">
         <v>1578</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32">
         <v>520.1</v>
       </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2">
+      <c r="V32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>6.448452634</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>6.574851185</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>6.913254169</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>7.695564707</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>7.104017091</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>6.709605738</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>6.585577805</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>6.714009956</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <v>6.46057096</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>6.483524062</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <v>6.483524062</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>6.667189281</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33">
         <v>6.443874985</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33">
         <v>6.804155611</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33">
         <v>6.736817453</v>
       </c>
-      <c r="P33" s="2">
+      <c r="P33">
         <v>6.642942193</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="Q33">
         <v>6.478671405</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33">
         <v>6.522942032</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33">
         <v>7.271816488</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33">
         <v>6.794805731</v>
       </c>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2">
+      <c r="V33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>6.525696043</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>6.583172334</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>6.727174934</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34">
         <v>7.792824373</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34">
         <v>6.980887599</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>6.711206444</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>6.700862424</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34">
         <v>6.925445646</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34">
         <v>6.48874299</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34">
         <v>6.422821667</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34">
         <v>6.649020029</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34">
         <v>6.676219042</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34">
         <v>6.456450249</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34">
         <v>6.946084706</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34">
         <v>6.756864446</v>
       </c>
-      <c r="P34" s="2">
+      <c r="P34">
         <v>6.72376982</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34">
         <v>6.613033437</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34">
         <v>6.463520481</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34">
         <v>8.247182697</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34">
         <v>6.809729855</v>
       </c>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2">
+      <c r="V34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>142</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>234.2</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>210.2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>1822.1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>204</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>196.6</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>175.6</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <v>308.9</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35">
         <v>105.3</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35">
         <v>123.1</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35">
         <v>116.3</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35">
         <v>204.1</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35">
         <v>104.3</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35">
         <v>194.6</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35">
         <v>139.9</v>
       </c>
-      <c r="P35" s="2">
+      <c r="P35">
         <v>162.2</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35">
         <v>164.1</v>
       </c>
-      <c r="R35" s="2">
+      <c r="R35">
         <v>93.1</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35">
         <v>1293.2</v>
       </c>
-      <c r="T35" s="2">
+      <c r="T35">
         <v>262.9</v>
       </c>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2">
+      <c r="V35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>6.490111652</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>6.676662335</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>6.791659054</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>7.928271613</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>7.101175306</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>6.636955998</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>6.646238104</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <v>6.942212865</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36">
         <v>6.501526344</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36">
         <v>6.337290576</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36">
         <v>6.419001071</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36">
         <v>6.756851741</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36">
         <v>6.535249452</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36">
         <v>6.71665454</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36">
         <v>6.759105095</v>
       </c>
-      <c r="P36" s="2">
+      <c r="P36">
         <v>6.686914</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36">
         <v>6.647622885</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36">
         <v>6.465068804</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36">
         <v>8.222992653</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36">
         <v>6.788859687</v>
       </c>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2">
+      <c r="V36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>136.9</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>435.2</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>357.9</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37">
         <v>654.6</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37">
         <v>117.4</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>193</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>213.6</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37">
         <v>281.8</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37">
         <v>97.8</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37">
         <v>93.8</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37">
         <v>122.9</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37">
         <v>131.5</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37">
         <v>95.1</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37">
         <v>272.6</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37">
         <v>157.2</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37">
         <v>233.2</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37">
         <v>146.8</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37">
         <v>99.3</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37">
         <v>1614.6</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37">
         <v>183.9</v>
       </c>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2">
+      <c r="V37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>6.545696309</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>6.539668429</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>6.699058456</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38">
         <v>7.948705128</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38">
         <v>6.821540156</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>6.637211384</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>6.68474862</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38">
         <v>6.541749346</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38">
         <v>6.463493234</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38">
         <v>6.431853744</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38">
         <v>6.564091407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38">
         <v>6.713610723</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38">
         <v>6.461358609</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38">
         <v>6.880484379</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38">
         <v>6.645126576</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38">
         <v>6.547687779</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38">
         <v>7.001400151</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38">
         <v>6.519699897</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38">
         <v>8.283564652</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38">
         <v>7.092953413</v>
       </c>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2">
+      <c r="V38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>6.520295021</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>6.775408047</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>6.68894297</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39">
         <v>8.393656038</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39">
         <v>7.359287305</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39">
         <v>6.617885463</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>6.588332721</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39">
         <v>6.740548557</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39">
         <v>6.425569601</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39">
         <v>6.356085106</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39">
         <v>6.413176576</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39">
         <v>6.592072552</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39">
         <v>6.373627499</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39">
         <v>6.742371998</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39">
         <v>6.724903586</v>
       </c>
-      <c r="P39" s="2">
+      <c r="P39">
         <v>6.533459524</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39">
         <v>6.478471103</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39">
         <v>6.43996343</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39">
         <v>8.479241342</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39">
         <v>6.815807174</v>
       </c>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2">
+      <c r="V39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>133.2</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>173.6</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>222.3</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40">
         <v>631.8</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40">
         <v>155.5</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>156.3</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>227.7</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40">
         <v>225.5</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40">
         <v>88</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40">
         <v>104.8</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40">
         <v>136.2</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40">
         <v>134.7</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40">
         <v>106.6</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40">
         <v>250.7</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40">
         <v>156.1</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P40">
         <v>160.9</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="Q40">
         <v>165</v>
       </c>
-      <c r="R40" s="2">
+      <c r="R40">
         <v>86.1</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40">
         <v>1300.7</v>
       </c>
-      <c r="T40" s="2">
+      <c r="T40">
         <v>178.4</v>
       </c>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2">
+      <c r="V40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>6.568017623</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>6.579499125</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>6.833944231</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>7.825846187</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>7.196696962</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>6.644999588</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>6.582735196</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>6.811281409</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
         <v>6.533340858</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>6.362261136</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41">
         <v>6.560147196</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41">
         <v>6.616188234</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41">
         <v>6.420168769</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41">
         <v>6.813543012</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41">
         <v>6.712811925</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P41">
         <v>6.58888236</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41">
         <v>6.682041498</v>
       </c>
-      <c r="R41" s="2">
+      <c r="R41">
         <v>6.401050159</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41">
         <v>8.041862499</v>
       </c>
-      <c r="T41" s="2">
+      <c r="T41">
         <v>6.877241766</v>
       </c>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2">
+      <c r="V41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>6.54729852</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>6.589314073</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>6.771621518</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42">
         <v>7.395395403</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42">
         <v>7.013097977</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>6.810277833</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>6.655372275</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42">
         <v>6.961383543</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42">
         <v>6.421916543</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42">
         <v>6.380054891</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42">
         <v>6.488563209</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42">
         <v>6.854188644</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42">
         <v>6.505592303</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42">
         <v>6.902564619</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42">
         <v>6.701473147</v>
       </c>
-      <c r="P42" s="2">
+      <c r="P42">
         <v>6.720887539</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42">
         <v>6.492276683</v>
       </c>
-      <c r="R42" s="2">
+      <c r="R42">
         <v>6.418471082</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42">
         <v>7.199705059</v>
       </c>
-      <c r="T42" s="2">
+      <c r="T42">
         <v>6.807640121</v>
       </c>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2">
+      <c r="V42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>6.576277378</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>6.458232778</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>6.815038612</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43">
         <v>7.809193922</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43">
         <v>7.034914222</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>6.734458022</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>6.726941475</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43">
         <v>6.975959848</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43">
         <v>6.464166466</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43">
         <v>6.563165396</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43">
         <v>6.513509545</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43">
         <v>6.780822506</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43">
         <v>6.530883766</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43">
         <v>6.779653702</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43">
         <v>6.560569397</v>
       </c>
-      <c r="P43" s="2">
+      <c r="P43">
         <v>6.596061937</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43">
         <v>6.598786293</v>
       </c>
-      <c r="R43" s="2">
+      <c r="R43">
         <v>6.429297137</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43">
         <v>6.740487522</v>
       </c>
-      <c r="T43" s="2">
+      <c r="T43">
         <v>6.85532532</v>
       </c>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2">
+      <c r="V43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>110.5</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>150.6</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>233.7</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>1551</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>201.4</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>176.8</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>186.4</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
         <v>260.7</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44">
         <v>101.7</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44">
         <v>103.7</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44">
         <v>99.3</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44">
         <v>130.2</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44">
         <v>106</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44">
         <v>216.8</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44">
         <v>153.3</v>
       </c>
-      <c r="P44" s="2">
+      <c r="P44">
         <v>168.8</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44">
         <v>131.6</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44">
         <v>101.4</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44">
         <v>1636.6</v>
       </c>
-      <c r="T44" s="2">
+      <c r="T44">
         <v>234.4</v>
       </c>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2">
+      <c r="V44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>6.533185094</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>6.656326109</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>6.825552451</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45">
         <v>7.389767555</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45">
         <v>7.407437733</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>6.831397735</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>6.579297977</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45">
         <v>7.049877066</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45">
         <v>6.401545955</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45">
         <v>6.674020719</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45">
         <v>6.450323631</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45">
         <v>6.527305712</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45">
         <v>6.422233001</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45">
         <v>6.754518512</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45">
         <v>6.652151835</v>
       </c>
-      <c r="P45" s="2">
+      <c r="P45">
         <v>6.668351492</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45">
         <v>6.757321745</v>
       </c>
-      <c r="R45" s="2">
+      <c r="R45">
         <v>6.443965734</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45">
         <v>7.894015081</v>
       </c>
-      <c r="T45" s="2">
+      <c r="T45">
         <v>6.910158717</v>
       </c>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2">
+      <c r="V45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>6.510268729</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>6.632586748</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>6.760826062</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46">
         <v>7.672627386</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46">
         <v>6.904845329</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>6.696722504</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>6.563971604</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46">
         <v>6.712720231</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46">
         <v>6.460235494</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46">
         <v>6.365480917</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46">
         <v>6.521835963</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46">
         <v>6.578169588</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46">
         <v>6.41251541</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46">
         <v>6.922990669</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46">
         <v>6.667429233</v>
       </c>
-      <c r="P46" s="2">
+      <c r="P46">
         <v>6.74729468</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="Q46">
         <v>6.706497663</v>
       </c>
-      <c r="R46" s="2">
+      <c r="R46">
         <v>6.496106206</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46">
         <v>7.770953292</v>
       </c>
-      <c r="T46" s="2">
+      <c r="T46">
         <v>6.862035094</v>
       </c>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2">
+      <c r="V46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>6.715501195</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>6.500232983</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>6.670821456</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47">
         <v>7.724302704</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47">
         <v>7.101540528</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>6.768348186</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>6.59284142</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47">
         <v>7.089845159</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47">
         <v>6.406745592</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47">
         <v>6.35498605</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47">
         <v>6.392121124</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47">
         <v>6.74189068</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47">
         <v>6.517163189</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47">
         <v>6.852938158</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47">
         <v>6.734348337</v>
       </c>
-      <c r="P47" s="2">
+      <c r="P47">
         <v>6.578392461</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47">
         <v>6.542243307</v>
       </c>
-      <c r="R47" s="2">
+      <c r="R47">
         <v>6.530385899</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47">
         <v>7.425481684</v>
       </c>
-      <c r="T47" s="2">
+      <c r="T47">
         <v>6.854286618</v>
       </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2">
+      <c r="V47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>6.583423091</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>6.604127819</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>6.753404607</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48">
         <v>7.40958894</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48">
         <v>7.114362067</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>6.704628281</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>6.511470298</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48">
         <v>6.768644351</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48">
         <v>6.43547779</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>6.416140031</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48">
         <v>6.485058746</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48">
         <v>6.634531039</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48">
         <v>6.397782593</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48">
         <v>6.822869726</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48">
         <v>6.634531039</v>
       </c>
-      <c r="P48" s="2">
+      <c r="P48">
         <v>6.504714965</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="Q48">
         <v>6.786926133</v>
       </c>
-      <c r="R48" s="2">
+      <c r="R48">
         <v>6.514933802</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48">
         <v>8.135423467</v>
       </c>
-      <c r="T48" s="2">
+      <c r="T48">
         <v>6.88445256</v>
       </c>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2">
+      <c r="V48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>6.679352748</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>6.783805848</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>6.775608713</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49">
         <v>8.011823595</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49">
         <v>7.244696818</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>6.6656743</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>6.56118064</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49">
         <v>7.033978786</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49">
         <v>6.450323631</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49">
         <v>6.572416919</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49">
         <v>6.521574268</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49">
         <v>6.695771821</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49">
         <v>6.527726463</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49">
         <v>6.795214048</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49">
         <v>6.733393081</v>
       </c>
-      <c r="P49" s="2">
+      <c r="P49">
         <v>6.722524574</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="Q49">
         <v>6.547100177</v>
       </c>
-      <c r="R49" s="2">
+      <c r="R49">
         <v>6.389935501</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49">
         <v>7.883481176</v>
       </c>
-      <c r="T49" s="2">
+      <c r="T49">
         <v>6.822724079</v>
       </c>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2">
+      <c r="V49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>6.574865598</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>6.513855404</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>6.784815541</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>8.106716222</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>7.057924697</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>6.677689444</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>6.588425532</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
         <v>6.968600972</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50">
         <v>6.351439877</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50">
         <v>6.418615644</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50">
         <v>6.442694734</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50">
         <v>6.707602355</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50">
         <v>6.365376762</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50">
         <v>7.008572684</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50">
         <v>6.788741634</v>
       </c>
-      <c r="P50" s="2">
+      <c r="P50">
         <v>6.564189421</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="Q50">
         <v>6.732511489</v>
       </c>
-      <c r="R50" s="2">
+      <c r="R50">
         <v>6.455554244</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50">
         <v>7.644704382</v>
       </c>
-      <c r="T50" s="2">
+      <c r="T50">
         <v>6.701601861</v>
       </c>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2">
+      <c r="V50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>6.609199849</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>6.665044844</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>6.755313632</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51">
         <v>7.63387401</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51">
         <v>7.381069082</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>6.810785827</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>6.652028879</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51">
         <v>6.93529697</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51">
         <v>6.426532339</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51">
         <v>6.314510955</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51">
         <v>6.562162454</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51">
         <v>6.625569698</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51">
         <v>6.444001242</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51">
         <v>6.901447334</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51">
         <v>6.637452923</v>
       </c>
-      <c r="P51" s="2">
+      <c r="P51">
         <v>6.72564379</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51">
         <v>6.758331099</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51">
         <v>6.466479521</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51">
         <v>8.27276529</v>
       </c>
-      <c r="T51" s="2">
+      <c r="T51">
         <v>6.859709298</v>
       </c>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2">
+      <c r="V51">
         <v>1</v>
       </c>
     </row>
